--- a/data/mosad.xlsx
+++ b/data/mosad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A145EE-0283-4D1C-8446-486977BFD243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494DC941-893C-4F0F-8F59-B435A343B4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="BF">'מספרים ייחודים'!#REF!</definedName>
-    <definedName name="CC">'מספרים ייחודים'!$A$1</definedName>
+    <definedName name="CC">'מספרים ייחודים'!$D$1</definedName>
     <definedName name="CV">'מספרים ייחודים'!#REF!</definedName>
     <definedName name="NamedRange1">#REF!</definedName>
     <definedName name="W">'מספרים ייחודים'!#REF!</definedName>
@@ -40,53 +40,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
-  <si>
-    <t>attachments</t>
-  </si>
-  <si>
-    <t>ent_group</t>
-  </si>
-  <si>
-    <t>בהד1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>עלי</t>
   </si>
   <si>
-    <t>חניכים מחזור א</t>
-  </si>
-  <si>
-    <t>שיחה</t>
-  </si>
-  <si>
-    <t>מפגש</t>
-  </si>
-  <si>
-    <t>שיחת_הורים</t>
-  </si>
-  <si>
-    <t>https://th01-s3.s3.eu-north-1.amazonaws.com/1e7f40ae5c9b4f329c413fc9f9056a51.jpg</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>MSG</t>
   </si>
   <si>
@@ -96,22 +54,76 @@
     <t>PHONE</t>
   </si>
   <si>
-    <t>דרום אדום 2 אתה בא?</t>
-  </si>
-  <si>
-    <t>דרום אדום 1 אתה בא?</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>נכנסות</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יוצאות </t>
-  </si>
-  <si>
-    <t>טיוטה</t>
+    <t>city</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>logo_path</t>
+  </si>
+  <si>
+    <t>owner_id</t>
+  </si>
+  <si>
+    <t>admin_name</t>
+  </si>
+  <si>
+    <t>admin_phone</t>
+  </si>
+  <si>
+    <t>roshYeshiva_name</t>
+  </si>
+  <si>
+    <t>roshYeshiva_phone</t>
+  </si>
+  <si>
+    <t>eshcol</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בני דוד דרך אבות </t>
+  </si>
+  <si>
+    <t>בני דוד עלי</t>
+  </si>
+  <si>
+    <t>בני דוד הבקעה</t>
+  </si>
+  <si>
+    <t>בני דוד</t>
+  </si>
+  <si>
+    <t>eldad8797@gmail.com</t>
+  </si>
+  <si>
+    <t>בן</t>
+  </si>
+  <si>
+    <t>מן</t>
+  </si>
+  <si>
+    <t>שן</t>
+  </si>
+  <si>
+    <t>אפק</t>
+  </si>
+  <si>
+    <t>ערד</t>
+  </si>
+  <si>
+    <t>contact_phone</t>
+  </si>
+  <si>
+    <t>contact_name</t>
   </si>
 </sst>
 </file>
@@ -158,18 +170,17 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="David"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,11 +215,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,24 +232,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,335 +468,220 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:I11"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.6328125" style="1"/>
-    <col min="6" max="6" width="19.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.08984375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6328125" style="1"/>
-    <col min="13" max="13" width="15.08984375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1796875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" style="1"/>
-    <col min="17" max="17" width="17" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.08984375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.36328125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="22.1796875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="12.6328125" style="1"/>
+    <col min="1" max="3" width="12.6328125" style="1"/>
+    <col min="4" max="4" width="15.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.6328125" style="1"/>
+    <col min="9" max="9" width="19.08984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.08984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" style="1"/>
+    <col min="16" max="16" width="15.08984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.1796875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6328125" style="1"/>
+    <col min="20" max="20" width="17" style="1" customWidth="1"/>
+    <col min="21" max="21" width="19.08984375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.36328125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="22.1796875" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="12.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>544816491</v>
-      </c>
-      <c r="B2" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="C2" s="7">
-        <v>45293</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8">
+        <v>543124511</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="8">
+        <v>543124511</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10">
+        <v>543124517</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="8">
+        <v>543124511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8">
+        <v>543124512</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8">
+        <v>543124512</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="8">
+        <v>543124512</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
+      <c r="L3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="8">
+        <v>543124512</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>544816492</v>
-      </c>
-      <c r="B3" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="C3" s="7">
-        <v>45414</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>544816493</v>
-      </c>
-      <c r="B4" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="C4" s="7">
-        <v>45293</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="8">
+        <v>544817648</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="E4" s="8">
+        <v>544817648</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>544816494</v>
-      </c>
-      <c r="B5" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45414</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="G4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="10">
+        <v>543124511</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>544816495</v>
-      </c>
-      <c r="B6" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="C6" s="7">
-        <v>45294</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>544816496</v>
-      </c>
-      <c r="B7" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="C7" s="7">
-        <v>45293</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="L4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>544816497</v>
-      </c>
-      <c r="B8" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="C8" s="7">
-        <v>45414</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>544816498</v>
-      </c>
-      <c r="B9" s="6">
-        <v>544816497</v>
-      </c>
-      <c r="C9" s="7">
-        <v>45294</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="B10" s="6">
-        <v>544816498</v>
-      </c>
-      <c r="C10" s="7">
-        <v>45293</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>523301800</v>
-      </c>
-      <c r="B11" s="6">
-        <v>544816495</v>
-      </c>
-      <c r="C11" s="7">
-        <v>45414</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>21</v>
+      <c r="N4" s="8">
+        <v>544817648</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="eldad8797@gmail.com" xr:uid="{EBD37F19-695E-46A7-A129-651B32CF579A}"/>
-    <hyperlink ref="D7" r:id="rId2" display="eldad8797@gmail.com" xr:uid="{8E692970-D9C2-4571-8AE8-38899E98D221}"/>
-    <hyperlink ref="D10" r:id="rId3" display="eldad8797@gmail.com" xr:uid="{EDEBD4E1-B551-48B1-97A5-D389245EB8B5}"/>
-    <hyperlink ref="D3" r:id="rId4" display="eldad8797@gmail.com" xr:uid="{A710D41C-737E-4619-9BB8-10E305133F0D}"/>
-    <hyperlink ref="D2" r:id="rId5" display="eldad8797@gmail.com" xr:uid="{F296669E-423F-4CE6-B984-07F791D57A59}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{27534653-348C-496C-9067-ADE2F000FE2C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/mosad.xlsx
+++ b/data/mosad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494DC941-893C-4F0F-8F59-B435A343B4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE96E6A3-23D5-4624-9A47-0D9D2E87493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>עלי</t>
   </si>
@@ -99,9 +99,6 @@
     <t>בני דוד הבקעה</t>
   </si>
   <si>
-    <t>בני דוד</t>
-  </si>
-  <si>
     <t>eldad8797@gmail.com</t>
   </si>
   <si>
@@ -124,6 +121,12 @@
   </si>
   <si>
     <t>contact_name</t>
+  </si>
+  <si>
+    <t>דרום</t>
+  </si>
+  <si>
+    <t>מרכז</t>
   </si>
 </sst>
 </file>
@@ -145,12 +148,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="David"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -177,6 +174,12 @@
     </font>
     <font>
       <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="David"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="David"/>
@@ -226,29 +229,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,10 +474,10 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2:N4"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -509,7 +512,7 @@
       <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -524,13 +527,13 @@
       <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -540,10 +543,10 @@
         <v>4</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -559,28 +562,28 @@
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>543124511</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="7">
+        <v>543124511</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="8">
-        <v>543124511</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>543124517</v>
       </c>
       <c r="J2" s="4"/>
@@ -590,97 +593,97 @@
       <c r="L2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="8">
+      <c r="M2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="7">
         <v>543124511</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>543124512</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8">
+      <c r="D3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7">
         <v>543124512</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="F3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7">
         <v>543124512</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="8">
+        <v>23</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="7">
         <v>543124512</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>544817648</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="8">
+      <c r="D4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7">
         <v>544817648</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="10">
+      <c r="F4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="9">
         <v>543124511</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="8">
+        <v>24</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="7">
         <v>544817648</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/mosad.xlsx
+++ b/data/mosad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494DC941-893C-4F0F-8F59-B435A343B4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7D7743-1D4A-4A5A-B7CB-6694FA068B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="מספרים ייחודים" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>עלי</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>contact_name</t>
+  </si>
+  <si>
+    <t>לא ידוע</t>
   </si>
 </sst>
 </file>
@@ -468,13 +471,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2:N4"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -679,6 +682,47 @@
         <v>544817648</v>
       </c>
     </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="8">
+        <v>544817648</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="8">
+        <v>544817648</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="10">
+        <v>543124511</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="8">
+        <v>544817648</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/mosad.xlsx
+++ b/data/mosad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7D7743-1D4A-4A5A-B7CB-6694FA068B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630D5B59-603C-4AF6-9E84-8D99634DF843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="מספרים ייחודים" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>עלי</t>
   </si>
@@ -99,9 +99,6 @@
     <t>בני דוד הבקעה</t>
   </si>
   <si>
-    <t>בני דוד</t>
-  </si>
-  <si>
     <t>eldad8797@gmail.com</t>
   </si>
   <si>
@@ -126,7 +123,10 @@
     <t>contact_name</t>
   </si>
   <si>
-    <t>לא ידוע</t>
+    <t>מרכז</t>
+  </si>
+  <si>
+    <t>דרום</t>
   </si>
 </sst>
 </file>
@@ -471,13 +471,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -543,10 +543,10 @@
         <v>4</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -566,22 +566,22 @@
         <v>543124511</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E2" s="8">
         <v>543124511</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="I2" s="10">
         <v>543124517</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" s="8">
         <v>543124511</v>
@@ -608,22 +608,22 @@
         <v>543124512</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E3" s="8">
         <v>543124512</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="8">
         <v>543124512</v>
@@ -632,10 +632,10 @@
         <v>2</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" s="8">
         <v>543124512</v>
@@ -649,22 +649,22 @@
         <v>544817648</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="8">
         <v>544817648</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="10">
         <v>543124511</v>
@@ -673,53 +673,12 @@
         <v>3</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N4" s="8">
-        <v>544817648</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="8">
-        <v>544817648</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="8">
-        <v>544817648</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="10">
-        <v>543124511</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="8">
         <v>544817648</v>
       </c>
     </row>
